--- a/datas/crm_login.xlsx
+++ b/datas/crm_login.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="24330" windowHeight="12015" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
+    <sheet name="departname" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>username</t>
   </si>
@@ -34,7 +35,22 @@
     <t>admin123456</t>
   </si>
   <si>
-    <t>huachan</t>
+    <t>huachuan</t>
+  </si>
+  <si>
+    <t>depart</t>
+  </si>
+  <si>
+    <t>门卫</t>
+  </si>
+  <si>
+    <t>销售</t>
+  </si>
+  <si>
+    <t>uu</t>
+  </si>
+  <si>
+    <t>急急急</t>
   </si>
 </sst>
 </file>
@@ -43,8 +59,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -57,82 +73,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,7 +108,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -170,9 +154,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -192,11 +176,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -209,13 +225,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -227,169 +351,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,36 +416,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -451,6 +437,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -458,6 +474,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -477,26 +502,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,10 +524,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -520,133 +536,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -975,14 +991,14 @@
   <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="12.3333333333333" customWidth="1"/>
-    <col min="2" max="2" width="13.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="13.775" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1015,6 +1031,51 @@
       </c>
       <c r="B4" t="s">
         <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <cols>
+    <col min="1" max="1" width="25.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/datas/crm_login.xlsx
+++ b/datas/crm_login.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CRMZDH\datas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9BB584D-3F07-4EBE-B757-4AF93F26C7F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3098" yWindow="1170" windowWidth="14400" windowHeight="8438" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="21000" windowHeight="8675"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -31,7 +25,7 @@
     <t>zhaijun</t>
   </si>
   <si>
-    <t>zj697366</t>
+    <t>zj123456</t>
   </si>
   <si>
     <t>tangli</t>
@@ -40,14 +34,20 @@
     <t>admin123456</t>
   </si>
   <si>
-    <t>huachan</t>
+    <t>huachuan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -56,21 +56,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -78,9 +402,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -89,17 +655,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -357,25 +967,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.86111111111111" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" customWidth="1"/>
-    <col min="2" max="2" width="13.796875" customWidth="1"/>
+    <col min="1" max="1" width="12.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="13.7962962962963" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -383,7 +993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -391,7 +1001,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -399,7 +1009,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -408,7 +1018,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/datas/crm_login.xlsx
+++ b/datas/crm_login.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="17670" windowHeight="12015" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
+    <sheet name="adminlogin" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="33">
   <si>
     <t>username</t>
   </si>
@@ -34,7 +35,85 @@
     <t>admin123456</t>
   </si>
   <si>
-    <t>huachan</t>
+    <t>huachuan</t>
+  </si>
+  <si>
+    <t>adminname</t>
+  </si>
+  <si>
+    <t>yanlong11</t>
+  </si>
+  <si>
+    <t>yanlong12</t>
+  </si>
+  <si>
+    <t>yanlong13</t>
+  </si>
+  <si>
+    <t>yanlong14</t>
+  </si>
+  <si>
+    <t>yanlong15</t>
+  </si>
+  <si>
+    <t>yanlong16</t>
+  </si>
+  <si>
+    <t>yanlong17</t>
+  </si>
+  <si>
+    <t>yanlong18</t>
+  </si>
+  <si>
+    <t>yanlong19</t>
+  </si>
+  <si>
+    <t>yanlong20</t>
+  </si>
+  <si>
+    <t>yanlong21</t>
+  </si>
+  <si>
+    <t>yanlong22</t>
+  </si>
+  <si>
+    <t>yanlong23</t>
+  </si>
+  <si>
+    <t>yanlong24</t>
+  </si>
+  <si>
+    <t>yanlong25</t>
+  </si>
+  <si>
+    <t>yanlong26</t>
+  </si>
+  <si>
+    <t>yanlong27</t>
+  </si>
+  <si>
+    <t>yanlong28</t>
+  </si>
+  <si>
+    <t>yanlong29</t>
+  </si>
+  <si>
+    <t>yanlong30</t>
+  </si>
+  <si>
+    <t>yanlong31</t>
+  </si>
+  <si>
+    <t>yanlong32</t>
+  </si>
+  <si>
+    <t>yanlong33</t>
+  </si>
+  <si>
+    <t>yanlong34</t>
+  </si>
+  <si>
+    <t>yanlong35</t>
   </si>
 </sst>
 </file>
@@ -42,8 +121,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -56,9 +135,74 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -66,53 +210,17 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -124,62 +232,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,8 +248,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,31 +288,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -245,151 +468,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,6 +479,69 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -427,60 +569,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -491,15 +579,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -508,10 +587,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -520,133 +599,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -975,14 +1054,14 @@
   <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="12.3333333333333" customWidth="1"/>
-    <col min="2" max="2" width="13.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="13.775" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1021,4 +1100,233 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="12.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/datas/crm_login.xlsx
+++ b/datas/crm_login.xlsx
@@ -41,79 +41,79 @@
     <t>adminname</t>
   </si>
   <si>
-    <t>yanlong11</t>
-  </si>
-  <si>
-    <t>yanlong12</t>
-  </si>
-  <si>
-    <t>yanlong13</t>
-  </si>
-  <si>
-    <t>yanlong14</t>
-  </si>
-  <si>
-    <t>yanlong15</t>
-  </si>
-  <si>
-    <t>yanlong16</t>
-  </si>
-  <si>
-    <t>yanlong17</t>
-  </si>
-  <si>
-    <t>yanlong18</t>
-  </si>
-  <si>
-    <t>yanlong19</t>
-  </si>
-  <si>
-    <t>yanlong20</t>
-  </si>
-  <si>
-    <t>yanlong21</t>
-  </si>
-  <si>
-    <t>yanlong22</t>
-  </si>
-  <si>
-    <t>yanlong23</t>
-  </si>
-  <si>
-    <t>yanlong24</t>
-  </si>
-  <si>
-    <t>yanlong25</t>
-  </si>
-  <si>
-    <t>yanlong26</t>
-  </si>
-  <si>
-    <t>yanlong27</t>
-  </si>
-  <si>
-    <t>yanlong28</t>
-  </si>
-  <si>
-    <t>yanlong29</t>
-  </si>
-  <si>
-    <t>yanlong30</t>
-  </si>
-  <si>
-    <t>yanlong31</t>
-  </si>
-  <si>
-    <t>yanlong32</t>
-  </si>
-  <si>
-    <t>yanlong33</t>
-  </si>
-  <si>
-    <t>yanlong34</t>
-  </si>
-  <si>
-    <t>yanlong35</t>
+    <t>long22</t>
+  </si>
+  <si>
+    <t>long23</t>
+  </si>
+  <si>
+    <t>long24</t>
+  </si>
+  <si>
+    <t>long25</t>
+  </si>
+  <si>
+    <t>long26</t>
+  </si>
+  <si>
+    <t>long27</t>
+  </si>
+  <si>
+    <t>long28</t>
+  </si>
+  <si>
+    <t>long29</t>
+  </si>
+  <si>
+    <t>long30</t>
+  </si>
+  <si>
+    <t>long31</t>
+  </si>
+  <si>
+    <t>long32</t>
+  </si>
+  <si>
+    <t>long33</t>
+  </si>
+  <si>
+    <t>long34</t>
+  </si>
+  <si>
+    <t>long35</t>
+  </si>
+  <si>
+    <t>long36</t>
+  </si>
+  <si>
+    <t>long37</t>
+  </si>
+  <si>
+    <t>long38</t>
+  </si>
+  <si>
+    <t>long39</t>
+  </si>
+  <si>
+    <t>long40</t>
+  </si>
+  <si>
+    <t>long41</t>
+  </si>
+  <si>
+    <t>long42</t>
+  </si>
+  <si>
+    <t>long43</t>
+  </si>
+  <si>
+    <t>long44</t>
+  </si>
+  <si>
+    <t>long45</t>
+  </si>
+  <si>
+    <t>long46</t>
   </si>
 </sst>
 </file>
@@ -121,10 +121,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -142,11 +142,116 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -158,114 +263,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,187 +288,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,30 +479,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -517,17 +493,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,9 +514,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,6 +528,39 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -587,10 +587,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -599,133 +599,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1107,8 +1107,8 @@
   <sheetPr/>
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>

--- a/datas/crm_login.xlsx
+++ b/datas/crm_login.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="34">
   <si>
     <t>username</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>huachuan</t>
+  </si>
+  <si>
+    <t>admin</t>
   </si>
   <si>
     <t>adminname</t>
@@ -121,9 +124,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -136,12 +139,104 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -152,80 +247,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,41 +260,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,25 +291,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -318,7 +453,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,145 +471,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,16 +486,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,13 +524,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,24 +544,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,17 +563,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -587,10 +590,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -599,133 +602,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1052,13 +1055,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="12.3333333333333" customWidth="1"/>
     <col min="2" max="2" width="13.775" customWidth="1"/>
@@ -1093,6 +1096,14 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1107,7 +1118,7 @@
   <sheetPr/>
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
@@ -1119,7 +1130,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1127,7 +1138,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -1135,7 +1146,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -1143,7 +1154,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -1151,7 +1162,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -1159,7 +1170,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -1167,7 +1178,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -1175,7 +1186,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -1183,7 +1194,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
@@ -1191,7 +1202,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
@@ -1199,7 +1210,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
@@ -1207,7 +1218,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
@@ -1215,7 +1226,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
@@ -1223,7 +1234,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
@@ -1231,7 +1242,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
@@ -1239,7 +1250,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>5</v>
@@ -1247,7 +1258,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
@@ -1255,7 +1266,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
@@ -1263,7 +1274,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
@@ -1271,7 +1282,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
@@ -1279,7 +1290,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
@@ -1287,7 +1298,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
         <v>5</v>
@@ -1295,7 +1306,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
@@ -1303,7 +1314,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s">
         <v>5</v>
@@ -1311,7 +1322,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B25" t="s">
         <v>5</v>
@@ -1319,7 +1330,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B26" t="s">
         <v>5</v>
